--- a/excel/kpi-rd.xlsx
+++ b/excel/kpi-rd.xlsx
@@ -67,7 +67,7 @@
     </r>
   </si>
   <si>
-    <t>业绩90%</t>
+    <t>业绩80%</t>
   </si>
   <si>
     <t>项目进度延时率</t>
